--- a/Code/Results/Cases/Case_3_180/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_180/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.00997277989345</v>
+        <v>8.240429235646172</v>
       </c>
       <c r="C2">
-        <v>6.675467490756065</v>
+        <v>4.443077152129236</v>
       </c>
       <c r="D2">
-        <v>8.681014301836358</v>
+        <v>11.25382604485561</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.35343049316955</v>
+        <v>30.23442155288505</v>
       </c>
       <c r="G2">
-        <v>20.22196864032838</v>
+        <v>28.57673330631639</v>
       </c>
       <c r="H2">
-        <v>8.545201928584737</v>
+        <v>14.35225666546571</v>
       </c>
       <c r="I2">
-        <v>12.60430444633852</v>
+        <v>20.61435096332924</v>
       </c>
       <c r="J2">
-        <v>7.013052130585917</v>
+        <v>11.41980662888941</v>
       </c>
       <c r="K2">
-        <v>10.85526494314481</v>
+        <v>8.192135282892176</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.15811844921606</v>
+        <v>15.62145121917271</v>
       </c>
       <c r="N2">
-        <v>12.13471464041941</v>
+        <v>18.64775362942765</v>
       </c>
       <c r="O2">
-        <v>13.63717579335694</v>
+        <v>21.80188204576866</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.2742955852669</v>
+        <v>7.956720529763678</v>
       </c>
       <c r="C3">
-        <v>6.336103854706801</v>
+        <v>4.276279489553058</v>
       </c>
       <c r="D3">
-        <v>8.333731686803336</v>
+        <v>11.21024531140881</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.11621907854572</v>
+        <v>30.28823827716163</v>
       </c>
       <c r="G3">
-        <v>20.02162232897303</v>
+        <v>28.65007657822885</v>
       </c>
       <c r="H3">
-        <v>8.605749042119584</v>
+        <v>14.39364635872947</v>
       </c>
       <c r="I3">
-        <v>12.75145227195076</v>
+        <v>20.6930061555147</v>
       </c>
       <c r="J3">
-        <v>6.960482973468728</v>
+        <v>11.43783597741448</v>
       </c>
       <c r="K3">
-        <v>10.27837135144472</v>
+        <v>8.007157045993043</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.61865547430064</v>
+        <v>15.54049077128654</v>
       </c>
       <c r="N3">
-        <v>12.29514372379749</v>
+        <v>18.69849863201008</v>
       </c>
       <c r="O3">
-        <v>13.67407390668171</v>
+        <v>21.87004078790364</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.79677753529668</v>
+        <v>7.778209771711259</v>
       </c>
       <c r="C4">
-        <v>6.117869138639784</v>
+        <v>4.169694096498313</v>
       </c>
       <c r="D4">
-        <v>8.116862642787854</v>
+        <v>11.18545720380998</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.98467231378908</v>
+        <v>30.3276890096703</v>
       </c>
       <c r="G4">
-        <v>19.91827024252694</v>
+        <v>28.70281298828469</v>
       </c>
       <c r="H4">
-        <v>8.647214069566635</v>
+        <v>14.42095960690261</v>
       </c>
       <c r="I4">
-        <v>12.84949617195309</v>
+        <v>20.74461671573278</v>
       </c>
       <c r="J4">
-        <v>6.93160949573399</v>
+        <v>11.45053964519616</v>
       </c>
       <c r="K4">
-        <v>9.906362708073159</v>
+        <v>7.892320114048172</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.27858715346686</v>
+        <v>15.49302434825981</v>
       </c>
       <c r="N4">
-        <v>12.39625716787486</v>
+        <v>18.73118577248602</v>
       </c>
       <c r="O4">
-        <v>13.70651120917991</v>
+        <v>21.91578071670187</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.59571742755425</v>
+        <v>7.704492357893569</v>
       </c>
       <c r="C5">
-        <v>6.026510516775716</v>
+        <v>4.125251848292014</v>
       </c>
       <c r="D5">
-        <v>8.027709694132703</v>
+        <v>11.17585925672032</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.93458447331352</v>
+        <v>30.34537500756615</v>
       </c>
       <c r="G5">
-        <v>19.88099089311062</v>
+        <v>28.72623512839976</v>
       </c>
       <c r="H5">
-        <v>8.665160572160428</v>
+        <v>14.43256806582291</v>
       </c>
       <c r="I5">
-        <v>12.89132370629409</v>
+        <v>20.76648258540046</v>
       </c>
       <c r="J5">
-        <v>6.920690870115215</v>
+        <v>11.45612743068343</v>
       </c>
       <c r="K5">
-        <v>9.750366165650687</v>
+        <v>7.84527063299338</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.13798172022198</v>
+        <v>15.47426068421694</v>
       </c>
       <c r="N5">
-        <v>12.43812851528208</v>
+        <v>18.74489168134258</v>
       </c>
       <c r="O5">
-        <v>13.72210553094788</v>
+        <v>21.9353976302963</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.56194180480484</v>
+        <v>7.692196341338507</v>
       </c>
       <c r="C6">
-        <v>6.011195763305213</v>
+        <v>4.11781267360401</v>
       </c>
       <c r="D6">
-        <v>8.0128632763486</v>
+        <v>11.17429614844693</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.92647892190963</v>
+        <v>30.34840890959043</v>
       </c>
       <c r="G6">
-        <v>19.87508942674544</v>
+        <v>28.73024085294326</v>
       </c>
       <c r="H6">
-        <v>8.668203110340041</v>
+        <v>14.43452452778058</v>
       </c>
       <c r="I6">
-        <v>12.89838060343559</v>
+        <v>20.77016378676593</v>
       </c>
       <c r="J6">
-        <v>6.918928753738829</v>
+        <v>11.45708010165514</v>
       </c>
       <c r="K6">
-        <v>9.724199830374761</v>
+        <v>7.837444778954092</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.11451827931766</v>
+        <v>15.47118040652201</v>
       </c>
       <c r="N6">
-        <v>12.44512180088686</v>
+        <v>18.74719085868884</v>
       </c>
       <c r="O6">
-        <v>13.72483601127638</v>
+        <v>21.9387140227398</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.79409211769853</v>
+        <v>7.777219376926463</v>
       </c>
       <c r="C7">
-        <v>6.11664678785462</v>
+        <v>4.169098755612263</v>
       </c>
       <c r="D7">
-        <v>8.115663249206181</v>
+        <v>11.18532571427519</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.98398260944586</v>
+        <v>30.32792101480896</v>
       </c>
       <c r="G7">
-        <v>19.91774804610189</v>
+        <v>28.70312105396462</v>
       </c>
       <c r="H7">
-        <v>8.647451892091579</v>
+        <v>14.42111422638851</v>
       </c>
       <c r="I7">
-        <v>12.8500527632828</v>
+        <v>20.74490822862026</v>
       </c>
       <c r="J7">
-        <v>6.931458823904572</v>
+        <v>11.45061333997191</v>
       </c>
       <c r="K7">
-        <v>9.904276588529159</v>
+        <v>7.891686523914726</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.27669881804273</v>
+        <v>15.49276893000108</v>
       </c>
       <c r="N7">
-        <v>12.39681914571568</v>
+        <v>18.73136905238265</v>
       </c>
       <c r="O7">
-        <v>13.70671201025658</v>
+        <v>21.91604132025731</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.76167790784366</v>
+        <v>8.143565317428846</v>
       </c>
       <c r="C8">
-        <v>6.560531239349457</v>
+        <v>4.386454045881691</v>
       </c>
       <c r="D8">
-        <v>8.562103806891793</v>
+        <v>11.23839529482203</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.26869979623512</v>
+        <v>30.25164692901718</v>
       </c>
       <c r="G8">
-        <v>20.14874951229882</v>
+        <v>28.60042011930922</v>
       </c>
       <c r="H8">
-        <v>8.565170395157422</v>
+        <v>14.36613374706932</v>
       </c>
       <c r="I8">
-        <v>12.65340609008848</v>
+        <v>20.64078324095866</v>
       </c>
       <c r="J8">
-        <v>6.994215100742024</v>
+        <v>11.42568420981998</v>
       </c>
       <c r="K8">
-        <v>10.66008446126221</v>
+        <v>8.128653917482522</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.97405558387385</v>
+        <v>15.5930796814471</v>
       </c>
       <c r="N8">
-        <v>12.18949553233784</v>
+        <v>18.66493367838433</v>
       </c>
       <c r="O8">
-        <v>13.64781751003971</v>
+        <v>21.82457536372381</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.45389289673617</v>
+        <v>8.823363460338715</v>
       </c>
       <c r="C9">
-        <v>7.350886163278508</v>
+        <v>4.778038726579395</v>
       </c>
       <c r="D9">
-        <v>9.403434250287312</v>
+        <v>11.35772994621868</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.93964871958874</v>
+        <v>30.15296790180046</v>
       </c>
       <c r="G9">
-        <v>20.76165305234996</v>
+        <v>28.46036788667466</v>
       </c>
       <c r="H9">
-        <v>8.439226966302529</v>
+        <v>14.27337488055309</v>
       </c>
       <c r="I9">
-        <v>12.33177922150216</v>
+        <v>20.46289031019127</v>
       </c>
       <c r="J9">
-        <v>7.144601737074311</v>
+        <v>11.38975175352735</v>
       </c>
       <c r="K9">
-        <v>11.99859279033289</v>
+        <v>8.580671588847473</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.26411849710061</v>
+        <v>15.80689464974914</v>
       </c>
       <c r="N9">
-        <v>11.80313788157757</v>
+        <v>18.54674252332213</v>
       </c>
       <c r="O9">
-        <v>13.61370159243717</v>
+        <v>21.67610798335565</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.57210183351908</v>
+        <v>9.294098665298741</v>
       </c>
       <c r="C10">
-        <v>7.880924397967762</v>
+        <v>5.042846402687061</v>
       </c>
       <c r="D10">
-        <v>9.994692777913803</v>
+        <v>11.45418039562529</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.50160931541245</v>
+        <v>30.11155149501011</v>
       </c>
       <c r="G10">
-        <v>21.3135765922082</v>
+        <v>28.39513772960638</v>
       </c>
       <c r="H10">
-        <v>8.370283227018659</v>
+        <v>14.21438184666487</v>
       </c>
       <c r="I10">
-        <v>12.13887474174822</v>
+        <v>20.34820242390444</v>
       </c>
       <c r="J10">
-        <v>7.272086368656885</v>
+        <v>11.37123628945654</v>
       </c>
       <c r="K10">
-        <v>12.8921260062547</v>
+        <v>8.90167300436498</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.15657728026867</v>
+        <v>15.97343729890978</v>
       </c>
       <c r="N10">
-        <v>11.53087494539218</v>
+        <v>18.46720950652885</v>
       </c>
       <c r="O10">
-        <v>13.64338806382183</v>
+        <v>21.58590444763876</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.05379228067635</v>
+        <v>9.501107831471058</v>
       </c>
       <c r="C11">
-        <v>8.110830279757463</v>
+        <v>5.158049892435758</v>
       </c>
       <c r="D11">
-        <v>10.25683429781968</v>
+        <v>11.49984042257962</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.77215473466615</v>
+        <v>30.09946257875157</v>
       </c>
       <c r="G11">
-        <v>21.58727846949428</v>
+        <v>28.37368674236592</v>
       </c>
       <c r="H11">
-        <v>8.344503914254844</v>
+        <v>14.18952800351153</v>
       </c>
       <c r="I11">
-        <v>12.0615923860878</v>
+        <v>20.29950044973549</v>
       </c>
       <c r="J11">
-        <v>7.333820827298082</v>
+        <v>11.36452137666526</v>
       </c>
       <c r="K11">
-        <v>13.27883783665409</v>
+        <v>9.044650919379889</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.59299380121043</v>
+        <v>16.05103487937258</v>
       </c>
       <c r="N11">
-        <v>11.40937084128647</v>
+        <v>18.43259912971821</v>
       </c>
       <c r="O11">
-        <v>13.66987359504803</v>
+        <v>21.5489749824316</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.23233205379667</v>
+        <v>9.578407549519765</v>
       </c>
       <c r="C12">
-        <v>8.196266185773645</v>
+        <v>5.200898158938204</v>
       </c>
       <c r="D12">
-        <v>10.35505214799575</v>
+        <v>11.51737617303991</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.87672890725504</v>
+        <v>30.09585507637684</v>
       </c>
       <c r="G12">
-        <v>21.69420007209665</v>
+        <v>28.36674877941378</v>
       </c>
       <c r="H12">
-        <v>8.335585468944542</v>
+        <v>14.18040123023472</v>
       </c>
       <c r="I12">
-        <v>12.0339282765059</v>
+        <v>20.28155710274273</v>
       </c>
       <c r="J12">
-        <v>7.357738187846893</v>
+        <v>11.36222378311079</v>
       </c>
       <c r="K12">
-        <v>13.42242235941424</v>
+        <v>9.098305892132965</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.77409741411168</v>
+        <v>16.08066391023345</v>
       </c>
       <c r="N12">
-        <v>11.36368495384855</v>
+        <v>18.4197177369782</v>
       </c>
       <c r="O12">
-        <v>13.68185774589343</v>
+        <v>21.53558159991904</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.19405197772051</v>
+        <v>9.56180910532113</v>
       </c>
       <c r="C13">
-        <v>8.177938424722848</v>
+        <v>5.191704862303745</v>
       </c>
       <c r="D13">
-        <v>10.33394681246202</v>
+        <v>11.51358880980253</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.85411285100991</v>
+        <v>30.09658887621377</v>
       </c>
       <c r="G13">
-        <v>21.67102663176038</v>
+        <v>28.36819025301505</v>
       </c>
       <c r="H13">
-        <v>8.337468027720464</v>
+        <v>14.18235417950052</v>
       </c>
       <c r="I13">
-        <v>12.03981344616416</v>
+        <v>20.28539932811652</v>
       </c>
       <c r="J13">
-        <v>7.352563123424249</v>
+        <v>11.36270771260591</v>
       </c>
       <c r="K13">
-        <v>13.39162596947167</v>
+        <v>9.086772771057746</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.73526354538093</v>
+        <v>16.0742722091073</v>
       </c>
       <c r="N13">
-        <v>11.37350997670406</v>
+        <v>18.42248199128299</v>
       </c>
       <c r="O13">
-        <v>13.67918842519762</v>
+        <v>21.53843980766316</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.06855823474273</v>
+        <v>9.507489517301602</v>
       </c>
       <c r="C14">
-        <v>8.117891752047051</v>
+        <v>5.161590720500412</v>
       </c>
       <c r="D14">
-        <v>10.26493612083047</v>
+        <v>11.50127824933961</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.78071566181097</v>
+        <v>30.09914634596966</v>
       </c>
       <c r="G14">
-        <v>21.59600921931919</v>
+        <v>28.37309218882309</v>
       </c>
       <c r="H14">
-        <v>8.343753041275697</v>
+        <v>14.1887714310955</v>
       </c>
       <c r="I14">
-        <v>12.05928378761381</v>
+        <v>20.29801423812154</v>
       </c>
       <c r="J14">
-        <v>7.335777695087701</v>
+        <v>11.36432744057721</v>
       </c>
       <c r="K14">
-        <v>13.29070788792049</v>
+        <v>9.049075189976463</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.60796997754856</v>
+        <v>16.05346769061225</v>
       </c>
       <c r="N14">
-        <v>11.40560579531489</v>
+        <v>18.43153486945206</v>
       </c>
       <c r="O14">
-        <v>13.67081986526439</v>
+        <v>21.54786125194453</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.99118674566301</v>
+        <v>9.474073442367557</v>
       </c>
       <c r="C15">
-        <v>8.080899601125354</v>
+        <v>5.143043217909591</v>
       </c>
       <c r="D15">
-        <v>10.222526587719</v>
+        <v>11.49376927811575</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.73603379286096</v>
+        <v>30.10083920741205</v>
       </c>
       <c r="G15">
-        <v>21.55048606421726</v>
+        <v>28.37624916307288</v>
       </c>
       <c r="H15">
-        <v>8.347713897394678</v>
+        <v>14.19273927059962</v>
       </c>
       <c r="I15">
-        <v>12.07142137270984</v>
+        <v>20.30580622507928</v>
       </c>
       <c r="J15">
-        <v>7.325566484929245</v>
+        <v>11.36535149013968</v>
       </c>
       <c r="K15">
-        <v>13.22852059143105</v>
+        <v>9.025919420007293</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.52950050086859</v>
+        <v>16.04075557770666</v>
       </c>
       <c r="N15">
-        <v>11.42530736010086</v>
+        <v>18.43710926858369</v>
       </c>
       <c r="O15">
-        <v>13.66595102167051</v>
+        <v>21.5537091468581</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.54008033928395</v>
+        <v>9.280420922567686</v>
       </c>
       <c r="C16">
-        <v>7.865672738407348</v>
+        <v>5.035209933699398</v>
       </c>
       <c r="D16">
-        <v>9.977417795460363</v>
+        <v>11.45123135338648</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.48422697474684</v>
+        <v>30.11247735688876</v>
       </c>
       <c r="G16">
-        <v>21.29614710590875</v>
+        <v>28.39670530478991</v>
       </c>
       <c r="H16">
-        <v>8.372083759795657</v>
+        <v>14.21604597494712</v>
       </c>
       <c r="I16">
-        <v>12.14414403495066</v>
+        <v>20.35145504257583</v>
       </c>
       <c r="J16">
-        <v>7.268127336697614</v>
+        <v>11.37170945939079</v>
       </c>
       <c r="K16">
-        <v>12.86645453848617</v>
+        <v>8.892263429903794</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.1306385396858</v>
+        <v>15.96840140484524</v>
       </c>
       <c r="N16">
-        <v>11.53886171954646</v>
+        <v>18.46950288308021</v>
       </c>
       <c r="O16">
-        <v>13.64192593757478</v>
+        <v>21.58840053670695</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.25643811395729</v>
+        <v>9.159746395881424</v>
       </c>
       <c r="C17">
-        <v>7.730756131366764</v>
+        <v>4.967695171236269</v>
       </c>
       <c r="D17">
-        <v>9.82525131660009</v>
+        <v>11.42558479851745</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.33355760317814</v>
+        <v>30.12134599071</v>
       </c>
       <c r="G17">
-        <v>21.14593439673575</v>
+        <v>28.41136259599798</v>
       </c>
       <c r="H17">
-        <v>8.388492354124571</v>
+        <v>14.23085145690229</v>
       </c>
       <c r="I17">
-        <v>12.19150475519256</v>
+        <v>20.38034791190958</v>
       </c>
       <c r="J17">
-        <v>7.233850064204514</v>
+        <v>11.37604703392359</v>
       </c>
       <c r="K17">
-        <v>12.63926571109872</v>
+        <v>8.809452967512096</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.9018206109739</v>
+        <v>15.92447102932667</v>
       </c>
       <c r="N17">
-        <v>11.60911645144841</v>
+        <v>18.48977668261796</v>
       </c>
       <c r="O17">
-        <v>13.63057511658119</v>
+        <v>21.6107344259716</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.09075315238548</v>
+        <v>9.089669772162006</v>
       </c>
       <c r="C18">
-        <v>7.652100794141243</v>
+        <v>4.928368502280925</v>
       </c>
       <c r="D18">
-        <v>9.737090079389606</v>
+        <v>11.41100222037906</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.24830116074244</v>
+        <v>30.12708255356282</v>
       </c>
       <c r="G18">
-        <v>21.06166550056676</v>
+        <v>28.42056691067969</v>
       </c>
       <c r="H18">
-        <v>8.39845314524834</v>
+        <v>14.23955378321002</v>
       </c>
       <c r="I18">
-        <v>12.21972487256188</v>
+        <v>20.39729294679447</v>
       </c>
       <c r="J18">
-        <v>7.214486754651548</v>
+        <v>11.37870267155335</v>
       </c>
       <c r="K18">
-        <v>12.50673300308843</v>
+        <v>8.761538482975954</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.76896413803361</v>
+        <v>15.89937749663667</v>
       </c>
       <c r="N18">
-        <v>11.64974706438354</v>
+        <v>18.50158542629176</v>
       </c>
       <c r="O18">
-        <v>13.62526307052998</v>
+        <v>21.62396658743053</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.03421818568034</v>
+        <v>9.065830436760322</v>
       </c>
       <c r="C19">
-        <v>7.62528873459415</v>
+        <v>4.914969006323513</v>
       </c>
       <c r="D19">
-        <v>9.707132697623441</v>
+        <v>11.40609411167891</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.21967653685005</v>
+        <v>30.12913402217135</v>
       </c>
       <c r="G19">
-        <v>21.03349834337133</v>
+        <v>28.42381614645379</v>
       </c>
       <c r="H19">
-        <v>8.401914313100017</v>
+        <v>14.24253229786926</v>
       </c>
       <c r="I19">
-        <v>12.22944514259898</v>
+        <v>20.40308634119062</v>
       </c>
       <c r="J19">
-        <v>7.207991068257183</v>
+        <v>11.37962944976891</v>
       </c>
       <c r="K19">
-        <v>12.46154082403681</v>
+        <v>8.745268235768815</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.72376997376264</v>
+        <v>15.89091174231107</v>
       </c>
       <c r="N19">
-        <v>11.66354239608681</v>
+        <v>18.50560907474667</v>
       </c>
       <c r="O19">
-        <v>13.62367075923928</v>
+        <v>21.62851309284802</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.28689524852448</v>
+        <v>9.172662017410941</v>
       </c>
       <c r="C20">
-        <v>7.745227515569214</v>
+        <v>4.974933514940324</v>
       </c>
       <c r="D20">
-        <v>9.841516372541617</v>
+        <v>11.4282975447493</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.34945136814163</v>
+        <v>30.12033613401686</v>
       </c>
       <c r="G20">
-        <v>21.16170419935314</v>
+        <v>28.40972219241665</v>
       </c>
       <c r="H20">
-        <v>8.386691213426415</v>
+        <v>14.2292560768397</v>
       </c>
       <c r="I20">
-        <v>12.18636108190924</v>
+        <v>20.37723841245682</v>
       </c>
       <c r="J20">
-        <v>7.237462484140377</v>
+        <v>11.37556865427576</v>
       </c>
       <c r="K20">
-        <v>12.66364294084469</v>
+        <v>8.818298055620881</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.92630833423434</v>
+        <v>15.92912961911042</v>
       </c>
       <c r="N20">
-        <v>11.60161483600479</v>
+        <v>18.48760321284551</v>
       </c>
       <c r="O20">
-        <v>13.63165687070491</v>
+        <v>21.6083169590767</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.10552357074392</v>
+        <v>9.523474560895336</v>
       </c>
       <c r="C21">
-        <v>8.135573075414328</v>
+        <v>5.170457205119805</v>
       </c>
       <c r="D21">
-        <v>10.28523520077065</v>
+        <v>11.50488759408394</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.80221671135467</v>
+        <v>30.09836882822987</v>
       </c>
       <c r="G21">
-        <v>21.61795460520826</v>
+        <v>28.37162019148171</v>
       </c>
       <c r="H21">
-        <v>8.341883751296105</v>
+        <v>14.18687880012207</v>
       </c>
       <c r="I21">
-        <v>12.05352063382399</v>
+        <v>20.29429538924374</v>
       </c>
       <c r="J21">
-        <v>7.340693319151895</v>
+        <v>11.36384503601581</v>
       </c>
       <c r="K21">
-        <v>13.32042752502678</v>
+        <v>9.060161494279564</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.64546300539761</v>
+        <v>16.0595720038335</v>
       </c>
       <c r="N21">
-        <v>11.39616975655907</v>
+        <v>18.42886972563433</v>
       </c>
       <c r="O21">
-        <v>13.67322417129637</v>
+        <v>21.54507789979421</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.6180204539268</v>
+        <v>9.746371922974632</v>
       </c>
       <c r="C22">
-        <v>8.381215640763211</v>
+        <v>5.293707977766809</v>
       </c>
       <c r="D22">
-        <v>10.56909047433616</v>
+        <v>11.55636785873034</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.11049657589366</v>
+        <v>30.08966700231532</v>
       </c>
       <c r="G22">
-        <v>21.93524169129178</v>
+        <v>28.35362650551414</v>
       </c>
       <c r="H22">
-        <v>8.317536942668143</v>
+        <v>14.16084294932561</v>
       </c>
       <c r="I22">
-        <v>11.9760825069218</v>
+        <v>20.2429961111406</v>
       </c>
       <c r="J22">
-        <v>7.4113077646101</v>
+        <v>11.35761195205709</v>
       </c>
       <c r="K22">
-        <v>13.73303261764428</v>
+        <v>9.215370422562179</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.16549722844827</v>
+        <v>16.14623952245128</v>
       </c>
       <c r="N22">
-        <v>11.26378814455321</v>
+        <v>18.39179392769704</v>
       </c>
       <c r="O22">
-        <v>13.71182375389245</v>
+        <v>21.50719266631818</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.34654622743173</v>
+        <v>9.628010472764036</v>
       </c>
       <c r="C23">
-        <v>8.250980928994801</v>
+        <v>5.228347739553114</v>
       </c>
       <c r="D23">
-        <v>10.41817297956692</v>
+        <v>11.52876537820185</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.94483718670213</v>
+        <v>30.09379420752491</v>
       </c>
       <c r="G23">
-        <v>21.76414744671454</v>
+        <v>28.36259727750112</v>
       </c>
       <c r="H23">
-        <v>8.330065589429328</v>
+        <v>14.17458694319213</v>
       </c>
       <c r="I23">
-        <v>12.01652122743676</v>
+        <v>20.27010933016689</v>
       </c>
       <c r="J23">
-        <v>7.373331097341121</v>
+        <v>11.36080805948461</v>
       </c>
       <c r="K23">
-        <v>13.51434280423313</v>
+        <v>9.132809835806061</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.88997757356743</v>
+        <v>16.09986044022141</v>
       </c>
       <c r="N23">
-        <v>11.33427421356579</v>
+        <v>18.41146241419783</v>
       </c>
       <c r="O23">
-        <v>13.69014763351171</v>
+        <v>21.52709725572166</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.2731337250511</v>
+        <v>9.166825037861523</v>
       </c>
       <c r="C24">
-        <v>7.738688396834458</v>
+        <v>4.971662651487511</v>
       </c>
       <c r="D24">
-        <v>9.834165049466078</v>
+        <v>11.42707060681946</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.34226154272097</v>
+        <v>30.12079070329486</v>
       </c>
       <c r="G24">
-        <v>21.15456816233015</v>
+        <v>28.41046139679982</v>
       </c>
       <c r="H24">
-        <v>8.387503869863103</v>
+        <v>14.22997675488632</v>
       </c>
       <c r="I24">
-        <v>12.18868345448084</v>
+        <v>20.3786431763432</v>
       </c>
       <c r="J24">
-        <v>7.235828240399204</v>
+        <v>11.3757844253601</v>
       </c>
       <c r="K24">
-        <v>12.65262797090461</v>
+        <v>8.814300139505429</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.91524149589274</v>
+        <v>15.92702296262587</v>
       </c>
       <c r="N24">
-        <v>11.6050055671143</v>
+        <v>18.48858536166766</v>
       </c>
       <c r="O24">
-        <v>13.63116403597103</v>
+        <v>21.60940867452303</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.0180961700278</v>
+        <v>8.644164993768758</v>
       </c>
       <c r="C25">
-        <v>7.145866924968967</v>
+        <v>4.67601245497753</v>
       </c>
       <c r="D25">
-        <v>9.180165984592062</v>
+        <v>11.32386528468359</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.74601099481534</v>
+        <v>30.17420698717678</v>
       </c>
       <c r="G25">
-        <v>20.57823558069733</v>
+        <v>28.49165821192757</v>
       </c>
       <c r="H25">
-        <v>8.469306709540518</v>
+        <v>14.29685894232266</v>
       </c>
       <c r="I25">
-        <v>12.41150393102062</v>
+        <v>20.50820213070641</v>
       </c>
       <c r="J25">
-        <v>7.100953026154327</v>
+        <v>11.39808676888295</v>
       </c>
       <c r="K25">
-        <v>11.65215083730571</v>
+        <v>8.460106677849407</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.9243404739245</v>
+        <v>15.74731901018369</v>
       </c>
       <c r="N25">
-        <v>11.90556843512025</v>
+        <v>18.57742922458306</v>
       </c>
       <c r="O25">
-        <v>13.61368701329124</v>
+        <v>21.71296033555238</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_180/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_180/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.240429235646172</v>
+        <v>12.0099727798935</v>
       </c>
       <c r="C2">
-        <v>4.443077152129236</v>
+        <v>6.675467490756127</v>
       </c>
       <c r="D2">
-        <v>11.25382604485561</v>
+        <v>8.681014301836381</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.23442155288505</v>
+        <v>20.35343049316964</v>
       </c>
       <c r="G2">
-        <v>28.57673330631639</v>
+        <v>20.22196864032844</v>
       </c>
       <c r="H2">
-        <v>14.35225666546571</v>
+        <v>8.54520192858474</v>
       </c>
       <c r="I2">
-        <v>20.61435096332924</v>
+        <v>12.60430444633858</v>
       </c>
       <c r="J2">
-        <v>11.41980662888941</v>
+        <v>7.013052130586002</v>
       </c>
       <c r="K2">
-        <v>8.192135282892176</v>
+        <v>10.85526494314484</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.62145121917271</v>
+        <v>12.15811844921611</v>
       </c>
       <c r="N2">
-        <v>18.64775362942765</v>
+        <v>12.13471464041948</v>
       </c>
       <c r="O2">
-        <v>21.80188204576866</v>
+        <v>13.63717579335697</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.956720529763678</v>
+        <v>11.27429558526688</v>
       </c>
       <c r="C3">
-        <v>4.276279489553058</v>
+        <v>6.336103854706894</v>
       </c>
       <c r="D3">
-        <v>11.21024531140881</v>
+        <v>8.333731686803397</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.28823827716163</v>
+        <v>20.11621907854572</v>
       </c>
       <c r="G3">
-        <v>28.65007657822885</v>
+        <v>20.02162232897303</v>
       </c>
       <c r="H3">
-        <v>14.39364635872947</v>
+        <v>8.605749042119527</v>
       </c>
       <c r="I3">
-        <v>20.6930061555147</v>
+        <v>12.7514522719507</v>
       </c>
       <c r="J3">
-        <v>11.43783597741448</v>
+        <v>6.960482973468672</v>
       </c>
       <c r="K3">
-        <v>8.007157045993043</v>
+        <v>10.27837135144468</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.54049077128654</v>
+        <v>11.61865547430066</v>
       </c>
       <c r="N3">
-        <v>18.69849863201008</v>
+        <v>12.29514372379739</v>
       </c>
       <c r="O3">
-        <v>21.87004078790364</v>
+        <v>13.67407390668168</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.778209771711259</v>
+        <v>10.79677753529671</v>
       </c>
       <c r="C4">
-        <v>4.169694096498313</v>
+        <v>6.117869138639716</v>
       </c>
       <c r="D4">
-        <v>11.18545720380998</v>
+        <v>8.116862642787884</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30.3276890096703</v>
+        <v>19.98467231378892</v>
       </c>
       <c r="G4">
-        <v>28.70281298828469</v>
+        <v>19.91827024252652</v>
       </c>
       <c r="H4">
-        <v>14.42095960690261</v>
+        <v>8.647214069566507</v>
       </c>
       <c r="I4">
-        <v>20.74461671573278</v>
+        <v>12.8494961719529</v>
       </c>
       <c r="J4">
-        <v>11.45053964519616</v>
+        <v>6.931609495733963</v>
       </c>
       <c r="K4">
-        <v>7.892320114048172</v>
+        <v>9.906362708073187</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.49302434825981</v>
+        <v>11.27858715346685</v>
       </c>
       <c r="N4">
-        <v>18.73118577248602</v>
+        <v>12.39625716787475</v>
       </c>
       <c r="O4">
-        <v>21.91578071670187</v>
+        <v>13.70651120917973</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.704492357893569</v>
+        <v>10.59571742755422</v>
       </c>
       <c r="C5">
-        <v>4.125251848292014</v>
+        <v>6.026510516775499</v>
       </c>
       <c r="D5">
-        <v>11.17585925672032</v>
+        <v>8.027709694132719</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.34537500756615</v>
+        <v>19.93458447331359</v>
       </c>
       <c r="G5">
-        <v>28.72623512839976</v>
+        <v>19.88099089311073</v>
       </c>
       <c r="H5">
-        <v>14.43256806582291</v>
+        <v>8.665160572160433</v>
       </c>
       <c r="I5">
-        <v>20.76648258540046</v>
+        <v>12.8913237062941</v>
       </c>
       <c r="J5">
-        <v>11.45612743068343</v>
+        <v>6.920690870115218</v>
       </c>
       <c r="K5">
-        <v>7.84527063299338</v>
+        <v>9.750366165650597</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.47426068421694</v>
+        <v>11.13798172022202</v>
       </c>
       <c r="N5">
-        <v>18.74489168134258</v>
+        <v>12.43812851528205</v>
       </c>
       <c r="O5">
-        <v>21.9353976302963</v>
+        <v>13.72210553094795</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.692196341338507</v>
+        <v>10.56194180480484</v>
       </c>
       <c r="C6">
-        <v>4.11781267360401</v>
+        <v>6.011195763305334</v>
       </c>
       <c r="D6">
-        <v>11.17429614844693</v>
+        <v>8.012863276348682</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.34840890959043</v>
+        <v>19.92647892190965</v>
       </c>
       <c r="G6">
-        <v>28.73024085294326</v>
+        <v>19.87508942674546</v>
       </c>
       <c r="H6">
-        <v>14.43452452778058</v>
+        <v>8.668203110339915</v>
       </c>
       <c r="I6">
-        <v>20.77016378676593</v>
+        <v>12.8983806034356</v>
       </c>
       <c r="J6">
-        <v>11.45708010165514</v>
+        <v>6.918928753738856</v>
       </c>
       <c r="K6">
-        <v>7.837444778954092</v>
+        <v>9.724199830374804</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.47118040652201</v>
+        <v>11.11451827931769</v>
       </c>
       <c r="N6">
-        <v>18.74719085868884</v>
+        <v>12.44512180088686</v>
       </c>
       <c r="O6">
-        <v>21.9387140227398</v>
+        <v>13.72483601127636</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.777219376926463</v>
+        <v>10.79409211769847</v>
       </c>
       <c r="C7">
-        <v>4.169098755612263</v>
+        <v>6.116646787854539</v>
       </c>
       <c r="D7">
-        <v>11.18532571427519</v>
+        <v>8.115663249206154</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.32792101480896</v>
+        <v>19.98398260944599</v>
       </c>
       <c r="G7">
-        <v>28.70312105396462</v>
+        <v>19.9177480461021</v>
       </c>
       <c r="H7">
-        <v>14.42111422638851</v>
+        <v>8.6474518920917</v>
       </c>
       <c r="I7">
-        <v>20.74490822862026</v>
+        <v>12.85005276328296</v>
       </c>
       <c r="J7">
-        <v>11.45061333997191</v>
+        <v>6.931458823904678</v>
       </c>
       <c r="K7">
-        <v>7.891686523914726</v>
+        <v>9.904276588529129</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.49276893000108</v>
+        <v>11.27669881804277</v>
       </c>
       <c r="N7">
-        <v>18.73136905238265</v>
+        <v>12.39681914571578</v>
       </c>
       <c r="O7">
-        <v>21.91604132025731</v>
+        <v>13.7067120102567</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.143565317428846</v>
+        <v>11.76167790784367</v>
       </c>
       <c r="C8">
-        <v>4.386454045881691</v>
+        <v>6.560531239349519</v>
       </c>
       <c r="D8">
-        <v>11.23839529482203</v>
+        <v>8.5621038068918</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.25164692901718</v>
+        <v>20.2686997962351</v>
       </c>
       <c r="G8">
-        <v>28.60042011930922</v>
+        <v>20.14874951229876</v>
       </c>
       <c r="H8">
-        <v>14.36613374706932</v>
+        <v>8.565170395157425</v>
       </c>
       <c r="I8">
-        <v>20.64078324095866</v>
+        <v>12.65340609008849</v>
       </c>
       <c r="J8">
-        <v>11.42568420981998</v>
+        <v>6.994215100742052</v>
       </c>
       <c r="K8">
-        <v>8.128653917482522</v>
+        <v>10.66008446126224</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.5930796814471</v>
+        <v>11.97405558387385</v>
       </c>
       <c r="N8">
-        <v>18.66493367838433</v>
+        <v>12.18949553233784</v>
       </c>
       <c r="O8">
-        <v>21.82457536372381</v>
+        <v>13.6478175100397</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.823363460338715</v>
+        <v>13.45389289673617</v>
       </c>
       <c r="C9">
-        <v>4.778038726579395</v>
+        <v>7.350886163278607</v>
       </c>
       <c r="D9">
-        <v>11.35772994621868</v>
+        <v>9.403434250287329</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.15296790180046</v>
+        <v>20.93964871958876</v>
       </c>
       <c r="G9">
-        <v>28.46036788667466</v>
+        <v>20.7616530523499</v>
       </c>
       <c r="H9">
-        <v>14.27337488055309</v>
+        <v>8.439226966302535</v>
       </c>
       <c r="I9">
-        <v>20.46289031019127</v>
+        <v>12.3317792215022</v>
       </c>
       <c r="J9">
-        <v>11.38975175352735</v>
+        <v>7.144601737074262</v>
       </c>
       <c r="K9">
-        <v>8.580671588847473</v>
+        <v>11.99859279033293</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.80689464974914</v>
+        <v>13.26411849710059</v>
       </c>
       <c r="N9">
-        <v>18.54674252332213</v>
+        <v>11.80313788157757</v>
       </c>
       <c r="O9">
-        <v>21.67610798335565</v>
+        <v>13.61370159243716</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.294098665298741</v>
+        <v>14.57210183351907</v>
       </c>
       <c r="C10">
-        <v>5.042846402687061</v>
+        <v>7.880924397968014</v>
       </c>
       <c r="D10">
-        <v>11.45418039562529</v>
+        <v>9.994692777913858</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.11155149501011</v>
+        <v>21.50160931541233</v>
       </c>
       <c r="G10">
-        <v>28.39513772960638</v>
+        <v>21.31357659220805</v>
       </c>
       <c r="H10">
-        <v>14.21438184666487</v>
+        <v>8.37028322701865</v>
       </c>
       <c r="I10">
-        <v>20.34820242390444</v>
+        <v>12.13887474174821</v>
       </c>
       <c r="J10">
-        <v>11.37123628945654</v>
+        <v>7.272086368656843</v>
       </c>
       <c r="K10">
-        <v>8.90167300436498</v>
+        <v>12.89212600625472</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.97343729890978</v>
+        <v>14.15657728026865</v>
       </c>
       <c r="N10">
-        <v>18.46720950652885</v>
+        <v>11.53087494539215</v>
       </c>
       <c r="O10">
-        <v>21.58590444763876</v>
+        <v>13.64338806382174</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.501107831471058</v>
+        <v>15.05379228067636</v>
       </c>
       <c r="C11">
-        <v>5.158049892435758</v>
+        <v>8.110830279757563</v>
       </c>
       <c r="D11">
-        <v>11.49984042257962</v>
+        <v>10.25683429781967</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.09946257875157</v>
+        <v>21.77215473466599</v>
       </c>
       <c r="G11">
-        <v>28.37368674236592</v>
+        <v>21.58727846949408</v>
       </c>
       <c r="H11">
-        <v>14.18952800351153</v>
+        <v>8.344503914254735</v>
       </c>
       <c r="I11">
-        <v>20.29950044973549</v>
+        <v>12.06159238608768</v>
       </c>
       <c r="J11">
-        <v>11.36452137666526</v>
+        <v>7.333820827298022</v>
       </c>
       <c r="K11">
-        <v>9.044650919379889</v>
+        <v>13.27883783665413</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.05103487937258</v>
+        <v>14.59299380121046</v>
       </c>
       <c r="N11">
-        <v>18.43259912971821</v>
+        <v>11.40937084128641</v>
       </c>
       <c r="O11">
-        <v>21.5489749824316</v>
+        <v>13.66987359504787</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.578407549519765</v>
+        <v>15.2323320537967</v>
       </c>
       <c r="C12">
-        <v>5.200898158938204</v>
+        <v>8.196266185773576</v>
       </c>
       <c r="D12">
-        <v>11.51737617303991</v>
+        <v>10.35505214799573</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.09585507637684</v>
+        <v>21.87672890725498</v>
       </c>
       <c r="G12">
-        <v>28.36674877941378</v>
+        <v>21.69420007209662</v>
       </c>
       <c r="H12">
-        <v>14.18040123023472</v>
+        <v>8.335585468944497</v>
       </c>
       <c r="I12">
-        <v>20.28155710274273</v>
+        <v>12.03392827650583</v>
       </c>
       <c r="J12">
-        <v>11.36222378311079</v>
+        <v>7.357738187846892</v>
       </c>
       <c r="K12">
-        <v>9.098305892132965</v>
+        <v>13.42242235941423</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.08066391023345</v>
+        <v>14.7740974141117</v>
       </c>
       <c r="N12">
-        <v>18.4197177369782</v>
+        <v>11.36368495384852</v>
       </c>
       <c r="O12">
-        <v>21.53558159991904</v>
+        <v>13.68185774589341</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.56180910532113</v>
+        <v>15.1940519777205</v>
       </c>
       <c r="C13">
-        <v>5.191704862303745</v>
+        <v>8.177938424722777</v>
       </c>
       <c r="D13">
-        <v>11.51358880980253</v>
+        <v>10.33394681246204</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.09658887621377</v>
+        <v>21.85411285100983</v>
       </c>
       <c r="G13">
-        <v>28.36819025301505</v>
+        <v>21.67102663176029</v>
       </c>
       <c r="H13">
-        <v>14.18235417950052</v>
+        <v>8.337468027720405</v>
       </c>
       <c r="I13">
-        <v>20.28539932811652</v>
+        <v>12.03981344616403</v>
       </c>
       <c r="J13">
-        <v>11.36270771260591</v>
+        <v>7.352563123424209</v>
       </c>
       <c r="K13">
-        <v>9.086772771057746</v>
+        <v>13.39162596947167</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.0742722091073</v>
+        <v>14.73526354538096</v>
       </c>
       <c r="N13">
-        <v>18.42248199128299</v>
+        <v>11.373509976704</v>
       </c>
       <c r="O13">
-        <v>21.53843980766316</v>
+        <v>13.67918842519754</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.507489517301602</v>
+        <v>15.06855823474262</v>
       </c>
       <c r="C14">
-        <v>5.161590720500412</v>
+        <v>8.117891752047136</v>
       </c>
       <c r="D14">
-        <v>11.50127824933961</v>
+        <v>10.26493612083044</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.09914634596966</v>
+        <v>21.78071566181092</v>
       </c>
       <c r="G14">
-        <v>28.37309218882309</v>
+        <v>21.59600921931916</v>
       </c>
       <c r="H14">
-        <v>14.1887714310955</v>
+        <v>8.343753041275678</v>
       </c>
       <c r="I14">
-        <v>20.29801423812154</v>
+        <v>12.05928378761387</v>
       </c>
       <c r="J14">
-        <v>11.36432744057721</v>
+        <v>7.335777695087745</v>
       </c>
       <c r="K14">
-        <v>9.049075189976463</v>
+        <v>13.29070788792046</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.05346769061225</v>
+        <v>14.60796997754854</v>
       </c>
       <c r="N14">
-        <v>18.43153486945206</v>
+        <v>11.40560579531489</v>
       </c>
       <c r="O14">
-        <v>21.54786125194453</v>
+        <v>13.67081986526438</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.474073442367557</v>
+        <v>14.99118674566296</v>
       </c>
       <c r="C15">
-        <v>5.143043217909591</v>
+        <v>8.080899601125424</v>
       </c>
       <c r="D15">
-        <v>11.49376927811575</v>
+        <v>10.22252658771896</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.10083920741205</v>
+        <v>21.7360337928609</v>
       </c>
       <c r="G15">
-        <v>28.37624916307288</v>
+        <v>21.55048606421718</v>
       </c>
       <c r="H15">
-        <v>14.19273927059962</v>
+        <v>8.347713897394673</v>
       </c>
       <c r="I15">
-        <v>20.30580622507928</v>
+        <v>12.07142137270984</v>
       </c>
       <c r="J15">
-        <v>11.36535149013968</v>
+        <v>7.325566484929211</v>
       </c>
       <c r="K15">
-        <v>9.025919420007293</v>
+        <v>13.22852059143106</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.04075557770666</v>
+        <v>14.52950050086859</v>
       </c>
       <c r="N15">
-        <v>18.43710926858369</v>
+        <v>11.42530736010083</v>
       </c>
       <c r="O15">
-        <v>21.5537091468581</v>
+        <v>13.66595102167046</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.280420922567686</v>
+        <v>14.54008033928398</v>
       </c>
       <c r="C16">
-        <v>5.035209933699398</v>
+        <v>7.865672738407348</v>
       </c>
       <c r="D16">
-        <v>11.45123135338648</v>
+        <v>9.977417795460354</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.11247735688876</v>
+        <v>21.48422697474679</v>
       </c>
       <c r="G16">
-        <v>28.39670530478991</v>
+        <v>21.29614710590884</v>
       </c>
       <c r="H16">
-        <v>14.21604597494712</v>
+        <v>8.372083759795595</v>
       </c>
       <c r="I16">
-        <v>20.35145504257583</v>
+        <v>12.14414403495065</v>
       </c>
       <c r="J16">
-        <v>11.37170945939079</v>
+        <v>7.268127336697661</v>
       </c>
       <c r="K16">
-        <v>8.892263429903794</v>
+        <v>12.86645453848619</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.96840140484524</v>
+        <v>14.13063853968579</v>
       </c>
       <c r="N16">
-        <v>18.46950288308021</v>
+        <v>11.5388617195465</v>
       </c>
       <c r="O16">
-        <v>21.58840053670695</v>
+        <v>13.64192593757477</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.159746395881424</v>
+        <v>14.2564381139573</v>
       </c>
       <c r="C17">
-        <v>4.967695171236269</v>
+        <v>7.73075613136671</v>
       </c>
       <c r="D17">
-        <v>11.42558479851745</v>
+        <v>9.825251316600147</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.12134599071</v>
+        <v>21.33355760317818</v>
       </c>
       <c r="G17">
-        <v>28.41136259599798</v>
+        <v>21.14593439673601</v>
       </c>
       <c r="H17">
-        <v>14.23085145690229</v>
+        <v>8.388492354124571</v>
       </c>
       <c r="I17">
-        <v>20.38034791190958</v>
+        <v>12.19150475519257</v>
       </c>
       <c r="J17">
-        <v>11.37604703392359</v>
+        <v>7.233850064204467</v>
       </c>
       <c r="K17">
-        <v>8.809452967512096</v>
+        <v>12.63926571109867</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.92447102932667</v>
+        <v>13.9018206109739</v>
       </c>
       <c r="N17">
-        <v>18.48977668261796</v>
+        <v>11.6091164514484</v>
       </c>
       <c r="O17">
-        <v>21.6107344259716</v>
+        <v>13.63057511658124</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.089669772162006</v>
+        <v>14.09075315238544</v>
       </c>
       <c r="C18">
-        <v>4.928368502280925</v>
+        <v>7.652100794141344</v>
       </c>
       <c r="D18">
-        <v>11.41100222037906</v>
+        <v>9.737090079389663</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.12708255356282</v>
+        <v>21.24830116074256</v>
       </c>
       <c r="G18">
-        <v>28.42056691067969</v>
+        <v>21.06166550056695</v>
       </c>
       <c r="H18">
-        <v>14.23955378321002</v>
+        <v>8.398453145248448</v>
       </c>
       <c r="I18">
-        <v>20.39729294679447</v>
+        <v>12.21972487256203</v>
       </c>
       <c r="J18">
-        <v>11.37870267155335</v>
+        <v>7.214486754651533</v>
       </c>
       <c r="K18">
-        <v>8.761538482975954</v>
+        <v>12.50673300308846</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.89937749663667</v>
+        <v>13.76896413803362</v>
       </c>
       <c r="N18">
-        <v>18.50158542629176</v>
+        <v>11.64974706438364</v>
       </c>
       <c r="O18">
-        <v>21.62396658743053</v>
+        <v>13.62526307053008</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.065830436760322</v>
+        <v>14.0342181856802</v>
       </c>
       <c r="C19">
-        <v>4.914969006323513</v>
+        <v>7.625288734594476</v>
       </c>
       <c r="D19">
-        <v>11.40609411167891</v>
+        <v>9.707132697623393</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.12913402217135</v>
+        <v>21.21967653685022</v>
       </c>
       <c r="G19">
-        <v>28.42381614645379</v>
+        <v>21.03349834337152</v>
       </c>
       <c r="H19">
-        <v>14.24253229786926</v>
+        <v>8.401914313100178</v>
       </c>
       <c r="I19">
-        <v>20.40308634119062</v>
+        <v>12.22944514259923</v>
       </c>
       <c r="J19">
-        <v>11.37962944976891</v>
+        <v>7.207991068257134</v>
       </c>
       <c r="K19">
-        <v>8.745268235768815</v>
+        <v>12.46154082403677</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.89091174231107</v>
+        <v>13.72376997376262</v>
       </c>
       <c r="N19">
-        <v>18.50560907474667</v>
+        <v>11.66354239608695</v>
       </c>
       <c r="O19">
-        <v>21.62851309284802</v>
+        <v>13.62367075923944</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.172662017410941</v>
+        <v>14.28689524852445</v>
       </c>
       <c r="C20">
-        <v>4.974933514940324</v>
+        <v>7.745227515569367</v>
       </c>
       <c r="D20">
-        <v>11.4282975447493</v>
+        <v>9.841516372541664</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.12033613401686</v>
+        <v>21.34945136814155</v>
       </c>
       <c r="G20">
-        <v>28.40972219241665</v>
+        <v>21.16170419935294</v>
       </c>
       <c r="H20">
-        <v>14.2292560768397</v>
+        <v>8.386691213426351</v>
       </c>
       <c r="I20">
-        <v>20.37723841245682</v>
+        <v>12.1863610819092</v>
       </c>
       <c r="J20">
-        <v>11.37556865427576</v>
+        <v>7.237462484140448</v>
       </c>
       <c r="K20">
-        <v>8.818298055620881</v>
+        <v>12.66364294084477</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.92912961911042</v>
+        <v>13.92630833423435</v>
       </c>
       <c r="N20">
-        <v>18.48760321284551</v>
+        <v>11.60161483600472</v>
       </c>
       <c r="O20">
-        <v>21.6083169590767</v>
+        <v>13.63165687070478</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.523474560895336</v>
+        <v>15.10552357074393</v>
       </c>
       <c r="C21">
-        <v>5.170457205119805</v>
+        <v>8.135573075414214</v>
       </c>
       <c r="D21">
-        <v>11.50488759408394</v>
+        <v>10.28523520077069</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.09836882822987</v>
+        <v>21.80221671135477</v>
       </c>
       <c r="G21">
-        <v>28.37162019148171</v>
+        <v>21.61795460520839</v>
       </c>
       <c r="H21">
-        <v>14.18687880012207</v>
+        <v>8.341883751296105</v>
       </c>
       <c r="I21">
-        <v>20.29429538924374</v>
+        <v>12.05352063382401</v>
       </c>
       <c r="J21">
-        <v>11.36384503601581</v>
+        <v>7.340693319151876</v>
       </c>
       <c r="K21">
-        <v>9.060161494279564</v>
+        <v>13.32042752502675</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.0595720038335</v>
+        <v>14.64546300539759</v>
       </c>
       <c r="N21">
-        <v>18.42886972563433</v>
+        <v>11.3961697565591</v>
       </c>
       <c r="O21">
-        <v>21.54507789979421</v>
+        <v>13.67322417129641</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.746371922974632</v>
+        <v>15.61802045392675</v>
       </c>
       <c r="C22">
-        <v>5.293707977766809</v>
+        <v>8.3812156407631</v>
       </c>
       <c r="D22">
-        <v>11.55636785873034</v>
+        <v>10.56909047433616</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.08966700231532</v>
+        <v>22.11049657589371</v>
       </c>
       <c r="G22">
-        <v>28.35362650551414</v>
+        <v>21.93524169129187</v>
       </c>
       <c r="H22">
-        <v>14.16084294932561</v>
+        <v>8.317536942668147</v>
       </c>
       <c r="I22">
-        <v>20.2429961111406</v>
+        <v>11.97608250692181</v>
       </c>
       <c r="J22">
-        <v>11.35761195205709</v>
+        <v>7.4113077646101</v>
       </c>
       <c r="K22">
-        <v>9.215370422562179</v>
+        <v>13.73303261764421</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.14623952245128</v>
+        <v>15.16549722844823</v>
       </c>
       <c r="N22">
-        <v>18.39179392769704</v>
+        <v>11.2637881445532</v>
       </c>
       <c r="O22">
-        <v>21.50719266631818</v>
+        <v>13.7118237538925</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.628010472764036</v>
+        <v>15.34654622743173</v>
       </c>
       <c r="C23">
-        <v>5.228347739553114</v>
+        <v>8.250980928994801</v>
       </c>
       <c r="D23">
-        <v>11.52876537820185</v>
+        <v>10.41817297956699</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.09379420752491</v>
+        <v>21.94483718670219</v>
       </c>
       <c r="G23">
-        <v>28.36259727750112</v>
+        <v>21.76414744671454</v>
       </c>
       <c r="H23">
-        <v>14.17458694319213</v>
+        <v>8.330065589429328</v>
       </c>
       <c r="I23">
-        <v>20.27010933016689</v>
+        <v>12.01652122743673</v>
       </c>
       <c r="J23">
-        <v>11.36080805948461</v>
+        <v>7.373331097341036</v>
       </c>
       <c r="K23">
-        <v>9.132809835806061</v>
+        <v>13.51434280423313</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.09986044022141</v>
+        <v>14.88997757356743</v>
       </c>
       <c r="N23">
-        <v>18.41146241419783</v>
+        <v>11.33427421356579</v>
       </c>
       <c r="O23">
-        <v>21.52709725572166</v>
+        <v>13.69014763351171</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.166825037861523</v>
+        <v>14.27313372505111</v>
       </c>
       <c r="C24">
-        <v>4.971662651487511</v>
+        <v>7.738688396834259</v>
       </c>
       <c r="D24">
-        <v>11.42707060681946</v>
+        <v>9.834165049466028</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.12079070329486</v>
+        <v>21.34226154272094</v>
       </c>
       <c r="G24">
-        <v>28.41046139679982</v>
+        <v>21.15456816233015</v>
       </c>
       <c r="H24">
-        <v>14.22997675488632</v>
+        <v>8.38750386986311</v>
       </c>
       <c r="I24">
-        <v>20.3786431763432</v>
+        <v>12.1886834544808</v>
       </c>
       <c r="J24">
-        <v>11.3757844253601</v>
+        <v>7.235828240399133</v>
       </c>
       <c r="K24">
-        <v>8.814300139505429</v>
+        <v>12.65262797090458</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.92702296262587</v>
+        <v>13.91524149589272</v>
       </c>
       <c r="N24">
-        <v>18.48858536166766</v>
+        <v>11.60500556711427</v>
       </c>
       <c r="O24">
-        <v>21.60940867452303</v>
+        <v>13.63116403597104</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.644164993768758</v>
+        <v>13.01809617002779</v>
       </c>
       <c r="C25">
-        <v>4.67601245497753</v>
+        <v>7.145866924968781</v>
       </c>
       <c r="D25">
-        <v>11.32386528468359</v>
+        <v>9.180165984591971</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.17420698717678</v>
+        <v>20.74601099481527</v>
       </c>
       <c r="G25">
-        <v>28.49165821192757</v>
+        <v>20.57823558069727</v>
       </c>
       <c r="H25">
-        <v>14.29685894232266</v>
+        <v>8.469306709540518</v>
       </c>
       <c r="I25">
-        <v>20.50820213070641</v>
+        <v>12.41150393102054</v>
       </c>
       <c r="J25">
-        <v>11.39808676888295</v>
+        <v>7.100953026154398</v>
       </c>
       <c r="K25">
-        <v>8.460106677849407</v>
+        <v>11.65215083730572</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.74731901018369</v>
+        <v>12.92434047392451</v>
       </c>
       <c r="N25">
-        <v>18.57742922458306</v>
+        <v>11.90556843512018</v>
       </c>
       <c r="O25">
-        <v>21.71296033555238</v>
+        <v>13.61368701329119</v>
       </c>
     </row>
   </sheetData>
